--- a/scheduler/schedule.xlsx
+++ b/scheduler/schedule.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="97">
   <si>
     <t>OFFICIAL ROBOT ROUNDS SCHEDULE</t>
   </si>
@@ -137,18 +137,6 @@
     <t>11:32-11:40</t>
   </si>
   <si>
-    <t>11:40-11:48</t>
-  </si>
-  <si>
-    <t>11:48-11:56</t>
-  </si>
-  <si>
-    <t>11:56-12:04</t>
-  </si>
-  <si>
-    <t>12:04-12:12</t>
-  </si>
-  <si>
     <t>JUDGING SESSION SCHEDULE</t>
   </si>
   <si>
@@ -182,6 +170,15 @@
     <t>9:45-9:55</t>
   </si>
   <si>
+    <t>10:00-10:10</t>
+  </si>
+  <si>
+    <t>10:15-10:25</t>
+  </si>
+  <si>
+    <t>10:30-10:40</t>
+  </si>
+  <si>
     <t>TABLE R1 SCHEDULE</t>
   </si>
   <si>
@@ -218,111 +215,114 @@
     <t>Judging Judging</t>
   </si>
   <si>
+    <t>Match 4</t>
+  </si>
+  <si>
+    <t>Table R1</t>
+  </si>
+  <si>
+    <t>Match 7</t>
+  </si>
+  <si>
+    <t>Table B1</t>
+  </si>
+  <si>
+    <t>Match 9</t>
+  </si>
+  <si>
+    <t>Table Y1</t>
+  </si>
+  <si>
+    <t>Match 11</t>
+  </si>
+  <si>
+    <t>Table R2</t>
+  </si>
+  <si>
+    <t>Match 14</t>
+  </si>
+  <si>
+    <t>Table B2</t>
+  </si>
+  <si>
+    <t>TEAM 156 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 13</t>
+  </si>
+  <si>
+    <t>Match 16</t>
+  </si>
+  <si>
+    <t>TEAM 176 SCHEDULE</t>
+  </si>
+  <si>
+    <t>TEAM 1915 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Table Y2</t>
+  </si>
+  <si>
+    <t>Match 20</t>
+  </si>
+  <si>
+    <t>TEAM 3348 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 17</t>
+  </si>
+  <si>
+    <t>TEAM 3404 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 10</t>
+  </si>
+  <si>
+    <t>TEAM 3406 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 1</t>
+  </si>
+  <si>
+    <t>Match 8</t>
+  </si>
+  <si>
+    <t>TEAM 6328 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 15</t>
+  </si>
+  <si>
+    <t>Match 19</t>
+  </si>
+  <si>
+    <t>TEAM 19478 SCHEDULE</t>
+  </si>
+  <si>
+    <t>TEAM 23980 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 3</t>
+  </si>
+  <si>
+    <t>TEAM 34259 SCHEDULE</t>
+  </si>
+  <si>
+    <t>TEAM 35599 SCHEDULE</t>
+  </si>
+  <si>
+    <t>TEAM 37854 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 2</t>
+  </si>
+  <si>
+    <t>TEAM 39425 SCHEDULE</t>
+  </si>
+  <si>
     <t>Match 5</t>
   </si>
   <si>
-    <t>Table R1</t>
-  </si>
-  <si>
-    <t>Match 7</t>
-  </si>
-  <si>
-    <t>Table B1</t>
-  </si>
-  <si>
-    <t>Match 10</t>
-  </si>
-  <si>
-    <t>Table Y1</t>
-  </si>
-  <si>
-    <t>Match 15</t>
-  </si>
-  <si>
-    <t>Table R2</t>
-  </si>
-  <si>
-    <t>Match 18</t>
-  </si>
-  <si>
-    <t>Table Y2</t>
-  </si>
-  <si>
-    <t>TEAM 156 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Table B2</t>
-  </si>
-  <si>
-    <t>TEAM 176 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 21</t>
-  </si>
-  <si>
-    <t>TEAM 1915 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 13</t>
-  </si>
-  <si>
-    <t>Match 16</t>
-  </si>
-  <si>
-    <t>TEAM 3348 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 3404 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 3406 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 6</t>
-  </si>
-  <si>
-    <t>Match 8</t>
-  </si>
-  <si>
-    <t>TEAM 6328 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 9</t>
-  </si>
-  <si>
-    <t>Match 14</t>
-  </si>
-  <si>
-    <t>Match 17</t>
-  </si>
-  <si>
-    <t>Match 22</t>
-  </si>
-  <si>
-    <t>TEAM 19478 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 23980 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 34259 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 23</t>
-  </si>
-  <si>
-    <t>TEAM 35599 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 37854 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 1</t>
-  </si>
-  <si>
-    <t>TEAM 39425 SCHEDULE</t>
-  </si>
-  <si>
     <t>TEAM 39444 SCHEDULE</t>
   </si>
   <si>
@@ -336,12 +336,6 @@
   </si>
   <si>
     <t>TEAM 46036 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 2</t>
-  </si>
-  <si>
-    <t>Match 24</t>
   </si>
   <si>
     <t>TEAM 46299 SCHEDULE</t>
@@ -773,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,22 +823,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>37854</v>
+        <v>3406</v>
       </c>
       <c r="D3" s="3">
-        <v>39425</v>
+        <v>6328</v>
       </c>
       <c r="E3" s="3">
-        <v>39444</v>
+        <v>19478</v>
       </c>
       <c r="F3" s="3">
-        <v>40010</v>
+        <v>23980</v>
       </c>
       <c r="G3" s="3">
-        <v>44576</v>
+        <v>34259</v>
       </c>
       <c r="H3" s="3">
-        <v>45218</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -854,15 +848,23 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="3">
+        <v>37854</v>
+      </c>
+      <c r="D4" s="3">
+        <v>39425</v>
+      </c>
+      <c r="E4" s="3">
+        <v>39444</v>
+      </c>
+      <c r="F4" s="3">
+        <v>40010</v>
+      </c>
       <c r="G4" s="3">
-        <v>46036</v>
+        <v>44576</v>
       </c>
       <c r="H4" s="3">
-        <v>46299</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -874,10 +876,18 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="E5" s="3">
+        <v>23980</v>
+      </c>
+      <c r="F5" s="3">
+        <v>34259</v>
+      </c>
+      <c r="G5" s="3">
+        <v>46036</v>
+      </c>
+      <c r="H5" s="3">
+        <v>46299</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
@@ -886,12 +896,24 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="3">
+        <v>151</v>
+      </c>
+      <c r="D6" s="3">
+        <v>156</v>
+      </c>
+      <c r="E6" s="3">
+        <v>176</v>
+      </c>
+      <c r="F6" s="3">
+        <v>35599</v>
+      </c>
+      <c r="G6" s="3">
+        <v>37854</v>
+      </c>
+      <c r="H6" s="3">
+        <v>39444</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
@@ -901,22 +923,22 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>151</v>
+        <v>44576</v>
       </c>
       <c r="D7" s="3">
-        <v>156</v>
+        <v>46036</v>
       </c>
       <c r="E7" s="3">
-        <v>176</v>
+        <v>45218</v>
       </c>
       <c r="F7" s="3">
-        <v>1915</v>
+        <v>46299</v>
       </c>
       <c r="G7" s="3">
-        <v>3348</v>
+        <v>39425</v>
       </c>
       <c r="H7" s="3">
-        <v>3404</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -926,24 +948,12 @@
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
-        <v>3406</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6328</v>
-      </c>
-      <c r="E8" s="3">
-        <v>19478</v>
-      </c>
-      <c r="F8" s="3">
-        <v>23980</v>
-      </c>
-      <c r="G8" s="3">
-        <v>34259</v>
-      </c>
-      <c r="H8" s="3">
-        <v>35599</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
@@ -956,16 +966,16 @@
         <v>156</v>
       </c>
       <c r="D9" s="3">
-        <v>1915</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3">
         <v>151</v>
       </c>
       <c r="F9" s="3">
-        <v>176</v>
+        <v>3404</v>
       </c>
       <c r="G9" s="3">
-        <v>3404</v>
+        <v>1915</v>
       </c>
       <c r="H9" s="3">
         <v>3348</v>
@@ -979,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>39425</v>
+        <v>6328</v>
       </c>
       <c r="D10" s="3">
         <v>40010</v>
@@ -988,13 +998,13 @@
         <v>3406</v>
       </c>
       <c r="F10" s="3">
+        <v>19478</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46299</v>
+      </c>
+      <c r="H10" s="3">
         <v>44576</v>
-      </c>
-      <c r="G10" s="3">
-        <v>37854</v>
-      </c>
-      <c r="H10" s="3">
-        <v>39444</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1005,22 +1015,22 @@
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>6328</v>
+        <v>176</v>
       </c>
       <c r="D11" s="3">
-        <v>45218</v>
+        <v>3348</v>
       </c>
       <c r="E11" s="3">
-        <v>23980</v>
+        <v>156</v>
       </c>
       <c r="F11" s="3">
-        <v>35599</v>
+        <v>1915</v>
       </c>
       <c r="G11" s="3">
-        <v>19478</v>
+        <v>151</v>
       </c>
       <c r="H11" s="3">
-        <v>34259</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1031,22 +1041,22 @@
         <v>18</v>
       </c>
       <c r="C12" s="3">
-        <v>176</v>
+        <v>3404</v>
       </c>
       <c r="D12" s="3">
-        <v>3348</v>
+        <v>34259</v>
       </c>
       <c r="E12" s="3">
-        <v>156</v>
+        <v>46299</v>
       </c>
       <c r="F12" s="3">
-        <v>46299</v>
+        <v>3406</v>
       </c>
       <c r="G12" s="3">
-        <v>151</v>
+        <v>35599</v>
       </c>
       <c r="H12" s="3">
-        <v>46036</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1056,12 +1066,24 @@
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="C13" s="3">
+        <v>19478</v>
+      </c>
+      <c r="D13" s="3">
+        <v>151</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6328</v>
+      </c>
+      <c r="F13" s="3">
+        <v>37854</v>
+      </c>
+      <c r="G13" s="3">
+        <v>39444</v>
+      </c>
+      <c r="H13" s="3">
+        <v>39425</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
@@ -1085,22 +1107,22 @@
         <v>21</v>
       </c>
       <c r="C15" s="3">
+        <v>40010</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45218</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44576</v>
+      </c>
+      <c r="F15" s="3">
+        <v>156</v>
+      </c>
+      <c r="G15" s="3">
+        <v>176</v>
+      </c>
+      <c r="H15" s="3">
         <v>1915</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3404</v>
-      </c>
-      <c r="E15" s="3">
-        <v>37854</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3406</v>
-      </c>
-      <c r="G15" s="3">
-        <v>39444</v>
-      </c>
-      <c r="H15" s="3">
-        <v>39425</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1111,22 +1133,22 @@
         <v>22</v>
       </c>
       <c r="C16" s="3">
+        <v>3348</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3404</v>
+      </c>
+      <c r="E16" s="3">
+        <v>34259</v>
+      </c>
+      <c r="F16" s="3">
+        <v>151</v>
+      </c>
+      <c r="G16" s="3">
         <v>23980</v>
       </c>
-      <c r="D16" s="3">
-        <v>34259</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6328</v>
-      </c>
-      <c r="F16" s="3">
-        <v>19478</v>
-      </c>
-      <c r="G16" s="3">
-        <v>40010</v>
-      </c>
       <c r="H16" s="3">
-        <v>44576</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1137,22 +1159,22 @@
         <v>23</v>
       </c>
       <c r="C17" s="3">
-        <v>3348</v>
+        <v>6328</v>
       </c>
       <c r="D17" s="3">
-        <v>151</v>
+        <v>46299</v>
       </c>
       <c r="E17" s="3">
         <v>35599</v>
       </c>
       <c r="F17" s="3">
-        <v>45218</v>
+        <v>46036</v>
       </c>
       <c r="G17" s="3">
-        <v>156</v>
+        <v>19478</v>
       </c>
       <c r="H17" s="3">
-        <v>176</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1163,22 +1185,22 @@
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>3404</v>
+        <v>176</v>
       </c>
       <c r="D18" s="3">
-        <v>46299</v>
+        <v>39444</v>
       </c>
       <c r="E18" s="3">
+        <v>156</v>
+      </c>
+      <c r="F18" s="3">
+        <v>39425</v>
+      </c>
+      <c r="G18" s="3">
+        <v>40010</v>
+      </c>
+      <c r="H18" s="3">
         <v>1915</v>
-      </c>
-      <c r="F18" s="3">
-        <v>46036</v>
-      </c>
-      <c r="G18" s="3">
-        <v>39425</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3406</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1189,22 +1211,22 @@
         <v>25</v>
       </c>
       <c r="C19" s="3">
-        <v>19478</v>
+        <v>34259</v>
       </c>
       <c r="D19" s="3">
-        <v>39444</v>
+        <v>3406</v>
       </c>
       <c r="E19" s="3">
-        <v>6328</v>
+        <v>3348</v>
       </c>
       <c r="F19" s="3">
-        <v>37854</v>
+        <v>44576</v>
       </c>
       <c r="G19" s="3">
-        <v>23980</v>
+        <v>45218</v>
       </c>
       <c r="H19" s="3">
-        <v>40010</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1214,24 +1236,12 @@
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3">
-        <v>34259</v>
-      </c>
-      <c r="D20" s="3">
-        <v>44576</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3348</v>
-      </c>
-      <c r="F20" s="3">
-        <v>156</v>
-      </c>
-      <c r="G20" s="3">
-        <v>35599</v>
-      </c>
-      <c r="H20" s="3">
-        <v>151</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
@@ -1240,12 +1250,24 @@
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="C21" s="3">
+        <v>35599</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19478</v>
+      </c>
+      <c r="E21" s="3">
+        <v>37854</v>
+      </c>
+      <c r="F21" s="3">
+        <v>46036</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6328</v>
+      </c>
+      <c r="H21" s="3">
+        <v>23980</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3">
@@ -1254,108 +1276,24 @@
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="C22" s="3">
+        <v>39425</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1915</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3404</v>
+      </c>
+      <c r="F22" s="3">
         <v>45218</v>
       </c>
-      <c r="D23" s="3">
-        <v>176</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3404</v>
-      </c>
-      <c r="F23" s="3">
-        <v>39425</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3406</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3">
-        <v>23980</v>
-      </c>
-      <c r="D24" s="3">
-        <v>37854</v>
-      </c>
-      <c r="E24" s="3">
-        <v>46036</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6328</v>
-      </c>
-      <c r="G24" s="3">
-        <v>46299</v>
-      </c>
-      <c r="H24" s="3">
-        <v>19478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3">
-        <v>40010</v>
-      </c>
-      <c r="D25" s="3">
-        <v>35599</v>
-      </c>
-      <c r="E25" s="3">
-        <v>34259</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="G22" s="3">
+        <v>3348</v>
+      </c>
+      <c r="H22" s="3">
         <v>39444</v>
       </c>
-      <c r="G25" s="3">
-        <v>45218</v>
-      </c>
-      <c r="H25" s="3">
-        <v>44576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3">
-        <v>46299</v>
-      </c>
-      <c r="D26" s="3">
-        <v>46036</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1367,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -1378,20 +1316,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -1402,147 +1340,147 @@
         <v>9</v>
       </c>
       <c r="C3" s="9">
-        <v>40010</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
       <c r="A4" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9">
-        <v>1915</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
       <c r="A5" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9">
-        <v>23980</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
       <c r="A6" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
-        <v>176</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
-        <v>44576</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9">
-        <v>35599</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
       <c r="A9" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9">
-        <v>46299</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
       <c r="A10" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9">
-        <v>3406</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9">
-        <v>19478</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
-        <v>45218</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>46036</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9">
-        <v>37854</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
-        <v>156</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
       <c r="A16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9">
         <v>39425</v>
@@ -1550,24 +1488,35 @@
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
       <c r="A17" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9">
-        <v>6328</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
       <c r="A18" s="9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9">
-        <v>39444</v>
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="35" customHeight="1">
+      <c r="A19" s="9">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45218</v>
       </c>
     </row>
   </sheetData>
@@ -1592,20 +1541,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1616,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>44576</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1627,70 +1576,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>46036</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>3348</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>34259</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>3404</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>37854</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>19478</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>151</v>
@@ -1698,101 +1647,101 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>39444</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>40010</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
-        <v>39425</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
-        <v>23980</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>35599</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>3406</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>46299</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
-        <v>45218</v>
+        <v>3348</v>
       </c>
     </row>
   </sheetData>
@@ -1816,20 +1765,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -1840,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9">
-        <v>44576</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
@@ -1851,70 +1800,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="9">
-        <v>46036</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
       <c r="A5" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9">
-        <v>3348</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
       <c r="A6" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
-        <v>34259</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
-        <v>3404</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9">
-        <v>37854</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
       <c r="A9" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9">
-        <v>19478</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
       <c r="A10" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9">
         <v>151</v>
@@ -1922,101 +1871,101 @@
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9">
-        <v>39444</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
-        <v>40010</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9">
-        <v>39425</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
-        <v>23980</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
       <c r="A16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9">
-        <v>35599</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
       <c r="A17" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9">
-        <v>3406</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
       <c r="A18" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9">
-        <v>46299</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35" customHeight="1">
       <c r="A19" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9">
-        <v>45218</v>
+        <v>3348</v>
       </c>
     </row>
   </sheetData>
@@ -2041,20 +1990,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2065,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>45218</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2076,70 +2025,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>46299</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>3404</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>35599</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>3348</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>39444</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>34259</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>46036</v>
@@ -2147,43 +2096,43 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>39425</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>44576</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <v>176</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
         <v>3406</v>
@@ -2191,57 +2140,57 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
-        <v>40010</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>151</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>1915</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>19478</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
-        <v>44576</v>
+        <v>39444</v>
       </c>
     </row>
   </sheetData>
@@ -2265,20 +2214,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -2289,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9">
-        <v>45218</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
@@ -2300,70 +2249,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="9">
-        <v>46299</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
       <c r="A5" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9">
-        <v>3404</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
       <c r="A6" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
-        <v>35599</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
-        <v>3348</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9">
-        <v>39444</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
       <c r="A9" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9">
-        <v>34259</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
       <c r="A10" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9">
         <v>46036</v>
@@ -2371,43 +2320,43 @@
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9">
-        <v>39425</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
-        <v>44576</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>176</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9">
         <v>3406</v>
@@ -2415,57 +2364,57 @@
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
-        <v>40010</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
       <c r="A16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9">
-        <v>151</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
       <c r="A17" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9">
-        <v>1915</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
       <c r="A18" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9">
-        <v>19478</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35" customHeight="1">
       <c r="A19" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9">
-        <v>44576</v>
+        <v>39444</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2439,7 @@
         <v>151</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -2512,7 +2461,7 @@
         <v>151</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -2523,7 +2472,7 @@
         <v>151</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2534,10 +2483,10 @@
         <v>151</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2545,7 +2494,7 @@
         <v>156</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2567,7 +2516,7 @@
         <v>156</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2578,10 +2527,10 @@
         <v>156</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2589,10 +2538,10 @@
         <v>156</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2600,7 +2549,7 @@
         <v>176</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2614,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2622,7 +2571,7 @@
         <v>176</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2633,10 +2582,10 @@
         <v>176</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2644,10 +2593,10 @@
         <v>176</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2655,10 +2604,10 @@
         <v>1915</v>
       </c>
       <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
         <v>5</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2666,10 +2615,10 @@
         <v>1915</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2680,7 +2629,7 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2691,7 +2640,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2699,10 +2648,10 @@
         <v>1915</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2710,10 +2659,10 @@
         <v>3348</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2721,10 +2670,10 @@
         <v>3348</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2732,10 +2681,10 @@
         <v>3348</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2743,10 +2692,10 @@
         <v>3348</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2754,10 +2703,10 @@
         <v>3348</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2765,10 +2714,10 @@
         <v>3404</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2776,10 +2725,10 @@
         <v>3404</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2787,7 +2736,7 @@
         <v>3404</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2798,10 +2747,10 @@
         <v>3404</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2809,7 +2758,7 @@
         <v>3404</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2820,7 +2769,7 @@
         <v>3406</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2842,7 +2791,7 @@
         <v>3406</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2853,7 +2802,7 @@
         <v>3406</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -2864,10 +2813,10 @@
         <v>3406</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2875,7 +2824,7 @@
         <v>6328</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2886,7 +2835,7 @@
         <v>6328</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2897,7 +2846,7 @@
         <v>6328</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -2908,10 +2857,10 @@
         <v>6328</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2919,10 +2868,10 @@
         <v>6328</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2930,7 +2879,7 @@
         <v>19478</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2941,10 +2890,10 @@
         <v>19478</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2952,10 +2901,10 @@
         <v>19478</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2963,10 +2912,10 @@
         <v>19478</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2974,10 +2923,10 @@
         <v>19478</v>
       </c>
       <c r="B45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2985,7 +2934,7 @@
         <v>23980</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2996,7 +2945,7 @@
         <v>23980</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3007,10 +2956,10 @@
         <v>23980</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3018,7 +2967,7 @@
         <v>23980</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -3029,10 +2978,10 @@
         <v>23980</v>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3040,7 +2989,7 @@
         <v>34259</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -3051,10 +3000,10 @@
         <v>34259</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3062,7 +3011,7 @@
         <v>34259</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -3073,10 +3022,10 @@
         <v>34259</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3084,10 +3033,10 @@
         <v>34259</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3095,7 +3044,7 @@
         <v>35599</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -3106,7 +3055,7 @@
         <v>35599</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -3117,10 +3066,10 @@
         <v>35599</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3128,10 +3077,10 @@
         <v>35599</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3139,10 +3088,10 @@
         <v>35599</v>
       </c>
       <c r="B60">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3150,7 +3099,7 @@
         <v>37854</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3161,7 +3110,7 @@
         <v>37854</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -3172,10 +3121,10 @@
         <v>37854</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3183,10 +3132,10 @@
         <v>37854</v>
       </c>
       <c r="B64">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3194,10 +3143,10 @@
         <v>37854</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3205,7 +3154,7 @@
         <v>39425</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -3216,10 +3165,10 @@
         <v>39425</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3227,7 +3176,7 @@
         <v>39425</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -3241,7 +3190,7 @@
         <v>16</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3249,10 +3198,10 @@
         <v>39425</v>
       </c>
       <c r="B70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3260,7 +3209,7 @@
         <v>39444</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -3271,7 +3220,7 @@
         <v>39444</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -3282,7 +3231,7 @@
         <v>39444</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -3293,7 +3242,7 @@
         <v>39444</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -3304,10 +3253,10 @@
         <v>39444</v>
       </c>
       <c r="B75">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3315,7 +3264,7 @@
         <v>40010</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -3326,10 +3275,10 @@
         <v>40010</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3337,10 +3286,10 @@
         <v>40010</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3348,10 +3297,10 @@
         <v>40010</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3359,10 +3308,10 @@
         <v>40010</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3370,7 +3319,7 @@
         <v>44576</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -3381,10 +3330,10 @@
         <v>44576</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3392,7 +3341,7 @@
         <v>44576</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -3403,10 +3352,10 @@
         <v>44576</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3414,10 +3363,10 @@
         <v>44576</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3425,7 +3374,7 @@
         <v>45218</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -3436,10 +3385,10 @@
         <v>45218</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3447,10 +3396,10 @@
         <v>45218</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3458,10 +3407,10 @@
         <v>45218</v>
       </c>
       <c r="B89">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3469,10 +3418,10 @@
         <v>45218</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3480,7 +3429,7 @@
         <v>46036</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -3491,10 +3440,10 @@
         <v>46036</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3502,10 +3451,10 @@
         <v>46036</v>
       </c>
       <c r="B93">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3513,10 +3462,10 @@
         <v>46036</v>
       </c>
       <c r="B94">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3524,10 +3473,10 @@
         <v>46036</v>
       </c>
       <c r="B95">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3535,7 +3484,7 @@
         <v>46299</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -3546,7 +3495,7 @@
         <v>46299</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -3557,10 +3506,10 @@
         <v>46299</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3568,10 +3517,10 @@
         <v>46299</v>
       </c>
       <c r="B99">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3579,10 +3528,10 @@
         <v>46299</v>
       </c>
       <c r="B100">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3552,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3613,32 +3562,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3646,43 +3595,43 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3655,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3716,32 +3665,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3749,43 +3698,43 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3819,32 +3768,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3852,43 +3801,43 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3912,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3922,43 +3871,43 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3966,10 +3915,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3977,21 +3926,21 @@
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +3953,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4016,7 +3965,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4030,27 +3979,27 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>151</v>
@@ -4061,76 +4010,88 @@
       <c r="D3" s="3">
         <v>176</v>
       </c>
-      <c r="E3" s="3">
-        <v>1915</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3348</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3404</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3">
-        <v>3406</v>
+        <v>1915</v>
       </c>
       <c r="C4" s="3">
-        <v>6328</v>
+        <v>3348</v>
       </c>
       <c r="D4" s="3">
-        <v>19478</v>
-      </c>
-      <c r="E4" s="3">
-        <v>23980</v>
-      </c>
-      <c r="F4" s="3">
-        <v>34259</v>
-      </c>
-      <c r="G4" s="3">
-        <v>35599</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3">
-        <v>37854</v>
+        <v>3406</v>
       </c>
       <c r="C5" s="3">
-        <v>39425</v>
+        <v>6328</v>
       </c>
       <c r="D5" s="3">
-        <v>39444</v>
-      </c>
-      <c r="E5" s="3">
-        <v>40010</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44576</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45218</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3">
+        <v>23980</v>
+      </c>
+      <c r="C6" s="3">
+        <v>34259</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3">
+        <v>37854</v>
+      </c>
+      <c r="C7" s="3">
+        <v>39425</v>
+      </c>
+      <c r="D7" s="3">
+        <v>39444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3">
+        <v>40010</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44576</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3">
         <v>46036</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C9" s="3">
         <v>46299</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4153,7 +4114,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4163,76 +4124,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4266,76 +4227,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4320,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4369,32 +4330,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4402,43 +4363,43 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4462,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4472,76 +4433,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4565,7 +4526,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4575,76 +4536,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +4629,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4678,76 +4639,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4781,76 +4742,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4874,7 +4835,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4884,76 +4845,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4977,7 +4938,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4987,76 +4948,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5041,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5090,54 +5051,54 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5145,21 +5106,21 @@
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5172,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5183,20 +5144,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5207,59 +5168,59 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>37854</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>151</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>3406</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>156</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>39425</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>6328</v>
@@ -5267,10 +5228,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>176</v>
@@ -5278,112 +5239,101 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
-        <v>1915</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
-        <v>23980</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>3348</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>3404</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
-        <v>19478</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
-        <v>34259</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>45218</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3">
-        <v>23980</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
-        <v>40010</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3">
-        <v>46299</v>
+        <v>39425</v>
       </c>
     </row>
   </sheetData>
@@ -5417,76 +5367,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5520,32 +5470,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5553,43 +5503,43 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5623,32 +5573,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5656,43 +5606,43 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5676,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5829,76 +5779,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5922,7 +5872,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5932,76 +5882,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6014,7 +5964,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -6025,20 +5975,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -6049,59 +5999,59 @@
         <v>9</v>
       </c>
       <c r="C3" s="9">
-        <v>37854</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
       <c r="A4" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9">
-        <v>151</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
       <c r="A5" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9">
-        <v>3406</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
       <c r="A6" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9">
-        <v>156</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9">
-        <v>39425</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9">
         <v>6328</v>
@@ -6109,10 +6059,10 @@
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
       <c r="A9" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9">
         <v>176</v>
@@ -6120,112 +6070,101 @@
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
       <c r="A10" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9">
-        <v>1915</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9">
-        <v>23980</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9">
-        <v>3348</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9">
-        <v>3404</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9">
-        <v>19478</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9">
-        <v>34259</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
       <c r="A16" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9">
-        <v>45218</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
       <c r="A17" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="9">
-        <v>23980</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
       <c r="A18" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="9">
-        <v>40010</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="35" customHeight="1">
-      <c r="A19" s="9">
-        <v>24</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="9">
-        <v>46299</v>
+        <v>39425</v>
       </c>
     </row>
   </sheetData>
@@ -6238,6 +6177,433 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>39425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>34259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>46299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3">
+        <v>39444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>19478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1915</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="35" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="35" customHeight="1">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="35" customHeight="1">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>39425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="35" customHeight="1">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="35" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="35" customHeight="1">
+      <c r="A7" s="9">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="35" customHeight="1">
+      <c r="A8" s="9">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9">
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="35" customHeight="1">
+      <c r="A9" s="9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="35" customHeight="1">
+      <c r="A10" s="9">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9">
+        <v>34259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="35" customHeight="1">
+      <c r="A11" s="9">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="35" customHeight="1">
+      <c r="A12" s="9">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="35" customHeight="1">
+      <c r="A13" s="9">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="35" customHeight="1">
+      <c r="A14" s="9">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9">
+        <v>46299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="35" customHeight="1">
+      <c r="A15" s="9">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9">
+        <v>39444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="35" customHeight="1">
+      <c r="A16" s="9">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="35" customHeight="1">
+      <c r="A17" s="9">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9">
+        <v>19478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="35" customHeight="1">
+      <c r="A18" s="9">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1915</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -6257,13 +6623,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6274,183 +6640,183 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>39425</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>156</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>6328</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>1915</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>40010</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>45218</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>3348</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>3404</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>34259</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>151</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <v>46299</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
-        <v>39444</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
-        <v>44576</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>37854</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>35599</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
-        <v>46036</v>
+        <v>3404</v>
       </c>
     </row>
   </sheetData>
@@ -6461,7 +6827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -6481,13 +6847,13 @@
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -6498,183 +6864,183 @@
         <v>9</v>
       </c>
       <c r="C3" s="9">
-        <v>39425</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
       <c r="A4" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9">
-        <v>156</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
       <c r="A5" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9">
-        <v>6328</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
       <c r="A6" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
-        <v>1915</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
-        <v>40010</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9">
-        <v>45218</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
       <c r="A9" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9">
-        <v>3348</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
       <c r="A10" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9">
-        <v>3404</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9">
-        <v>34259</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
-        <v>151</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>46299</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9">
-        <v>39444</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
-        <v>44576</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
       <c r="A16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
       <c r="A17" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9">
-        <v>37854</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
       <c r="A18" s="9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9">
-        <v>35599</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35" customHeight="1">
       <c r="A19" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9">
-        <v>46036</v>
+        <v>3404</v>
       </c>
     </row>
   </sheetData>
@@ -6686,9 +7052,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6706,13 +7072,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6723,599 +7089,183 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>39444</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>176</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>19478</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>151</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>3406</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>23980</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>156</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>37854</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>6328</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>35599</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <v>1915</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
-        <v>6328</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
-        <v>3348</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>3404</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>46036</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>34259</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" ht="35" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="35" customHeight="1">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9">
-        <v>39444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="35" customHeight="1">
-      <c r="A4" s="9">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="35" customHeight="1">
-      <c r="A5" s="9">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9">
-        <v>19478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="35" customHeight="1">
-      <c r="A6" s="9">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="35" customHeight="1">
-      <c r="A7" s="9">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="35" customHeight="1">
-      <c r="A8" s="9">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9">
-        <v>23980</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="35" customHeight="1">
-      <c r="A9" s="9">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="35" customHeight="1">
-      <c r="A10" s="9">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9">
-        <v>37854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="35" customHeight="1">
-      <c r="A11" s="9">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9">
-        <v>6328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="35" customHeight="1">
-      <c r="A12" s="9">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9">
-        <v>35599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="35" customHeight="1">
-      <c r="A13" s="9">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="35" customHeight="1">
-      <c r="A14" s="9">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="9">
-        <v>6328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="35" customHeight="1">
-      <c r="A15" s="9">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="35" customHeight="1">
-      <c r="A16" s="9">
-        <v>21</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="35" customHeight="1">
-      <c r="A17" s="9">
-        <v>22</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9">
         <v>46036</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="35" customHeight="1">
-      <c r="A18" s="9">
-        <v>23</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="9">
-        <v>34259</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>40010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
-        <v>23980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3">
-        <v>35599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3">
-        <v>46299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3">
-        <v>19478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3">
         <v>45218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3">
-        <v>46036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3">
-        <v>37854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3">
-        <v>39425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3">
-        <v>39444</v>
       </c>
     </row>
   </sheetData>
